--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1030.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1030.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.368446562273834</v>
+        <v>1.217250466346741</v>
       </c>
       <c r="B1">
-        <v>3.595464383348586</v>
+        <v>1.224969863891602</v>
       </c>
       <c r="C1">
-        <v>3.028881120689253</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.347979987039685</v>
+        <v>2.007501125335693</v>
       </c>
       <c r="E1">
-        <v>1.291834776138941</v>
+        <v>0.9544448852539062</v>
       </c>
     </row>
   </sheetData>
